--- a/database/students_performance.xlsx
+++ b/database/students_performance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1026,6 +1026,192 @@
         </is>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Lesson 1.1</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Lesson 1.1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Question 0: The composition of the cell wall</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Score: 0%; Feedback: The correct answer was 'Carbohydrates'
+Correction: Lipids
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Question 1: The types of genetic information</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Score: 100% The correct answer was 'Amino acid composition'</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Question 2: The purpose of mitochondria</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Score: 100% The correct answer was 'To produce energy for the cell'</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Lesson 1.2</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Lesson 1.2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Question 0: The largest fish</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Score: 0%; Feedback: The correct answer was 'Whale Shark'
+Correction: The whale shark is the biggest species of fish and sharks in the world.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Question 1: The skeleton of sharks</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Score: 0%; Feedback: The correct answer was 'Sharks have a cartilaginous skeleton.'
+Correction: Sharks have a skeleton of cartilage
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Question 2: Freshwater fish</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Score: 0%; Feedback: The correct answer was 'Trout'
+Correction: Which of the following types of fish is typically found living in freshwater systems?
+ A. Trout B. Salmon C. Diseased fish are found in fresh water. D. The gerbil fish from the depths of Lake Superior
+ Answer: A
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Question 3: Deep see fish</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Score: 0%; Feedback: The correct answer was 'Answer: Deep sea fish are a type of fish that live in the depths of the ocean, usually at depths greater than 1000 meters.'
+Correction: Fish found in the depths of the ocean are deep sea fish.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Question 4: The classification of fish</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Score: 0%; Feedback: The correct answer was 'Answer: Fish are classified by a variety of physical characteristics, including body shape, number of fins, type of scales, habitat, and diet.'
+Correction: Fish are classified intro specific and non-specific grouping.
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
